--- a/docs/source/_worksheets/EGES_level_1_baseline_wksts.xlsx
+++ b/docs/source/_worksheets/EGES_level_1_baseline_wksts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thejo\iCloudDrive\Documents\SME\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikegarcia/Library/Mobile Documents/com~apple~CloudDocs/Consulting/CIS/handbook2/small biz guide/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92222102-0D59-4278-A3E7-0CA207DEF50D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAE0910A-A256-A04C-946B-F5F5DED2BAE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4965" yWindow="720" windowWidth="30450" windowHeight="20175" tabRatio="865" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="865" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="48" r:id="rId1"/>
@@ -23,6 +23,10 @@
     <sheet name="Service Provider Inventory" sheetId="61" r:id="rId8"/>
     <sheet name="Account Inventory" sheetId="59" r:id="rId9"/>
     <sheet name="Asset Protection" sheetId="62" r:id="rId10"/>
+    <sheet name="Account Security" sheetId="64" r:id="rId11"/>
+    <sheet name="Backup &amp; Recovery" sheetId="65" r:id="rId12"/>
+    <sheet name="Incident Response" sheetId="66" r:id="rId13"/>
+    <sheet name="Cyber Education" sheetId="67" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="139">
   <si>
     <t>Contact Information</t>
   </si>
@@ -255,17 +259,282 @@
     <t>30 minutes per computer</t>
   </si>
   <si>
-    <t>Print out and complete the following actions for each asset in the enterprise. Feel free to modify the template as needed. Make sure to complete the Authentication Worksheet as well.</t>
-  </si>
-  <si>
     <t xml:space="preserve">INSERT ASSET NAME HERE </t>
+  </si>
+  <si>
+    <t>Y / N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make sure all software installed on the system is up to date. </t>
+  </si>
+  <si>
+    <t>Make sure your device’s screen automatically locks after 10 minutes (600 seconds).</t>
+  </si>
+  <si>
+    <t>Check to see if your device is encrypted. Not all devices easily support this.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turn on firewall and network protection. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make sure automatic updates are turned on for the operating system, such as Windows or MacOS. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make sure automatic updates are turned on within each application. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only use up-to-date and modern internet browsers. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only use up-to-date and modern email applications. N/A if you use webmail (e.g., Gmail). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use secure DNS services such as Quad9. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Install and turn on antivirus software. This may already be installed by default. </t>
+  </si>
+  <si>
+    <t>Make sure all antivirus software and signatures are up to date.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disable autorun and autoplay for Windows systems. </t>
+  </si>
+  <si>
+    <t>Account Protection Worksheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make some form of password, PIN, or passcode is used for this account. </t>
+  </si>
+  <si>
+    <t>If this account is no longer in use, delete or disable it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turn on multifactor authentication for this account. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSERT ACCOUNT NAME HERE </t>
+  </si>
+  <si>
+    <t>5 minutes per account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensure the password for this account is not being used for any other account you own, to include personal and business accounts. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Complete the following actions for each asset in the enterprise. Use your hardware asset inventory to make sure each asset is represented here. Feel free to modify the template as needed. Make sure to complete the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Account Security Worksheet </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>as well.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Complete the following actions for each account in the enterprise. Use your account inventory to make sure each account is represented here. Feel free to modify the template as needed.  Make sure to complete the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Asset Protection Worksheet </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>as well.</t>
+    </r>
+  </si>
+  <si>
+    <t>Backup &amp; Recovery Worksheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each device in your enterprise may have valuable information that is worth being stored and protected in case of a cyber incident or natural disaster. Complete the following actions for each asset in the enterprise. Feel free to modify the template as needed. </t>
+  </si>
+  <si>
+    <t>Every month</t>
+  </si>
+  <si>
+    <t>Decide how long valuable data on this device should be stored.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete unneeded data in a secure way (refer to guide for additional information).   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automate backups via either a tool, service, or by physically copying information to removable media on a regular basis. Refer to the Guide for tool suggestions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keep a copy of your valuable and sensitive data offline. Putting it on a USB drive accomplishes this. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify any backup services your company is using is encrypting your data.  </t>
+  </si>
+  <si>
+    <t>Keep any physical copies of backups (e.g., paper, USB sticks) safe from theft or destruction.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keep one copy of your most sensitive and valuable data offsite at another physical location. This may include using a cloud storage company.  </t>
+  </si>
+  <si>
+    <t>Incident Response Worksheet</t>
+  </si>
+  <si>
+    <t>Print out and complete the following to ensure you’re ready just in case your enterprise experiences a cybersecurity incident. Feel free to modify the template as needed. Sign and date when complete.</t>
+  </si>
+  <si>
+    <t>Assign an employee to be the lead person to handle cybersecurity incidents.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Designated employee: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telephone: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email: </t>
+  </si>
+  <si>
+    <t>Who should the designated personnel contact if there is an incident?  Include contact information. This may be law enforcement, IT Technician, or other employees.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Person or Organization: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Train employees on who they should contact if a cyber incident occurs.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note that if an incident occurs, request that any technical personnel handling the hacking incident store and maintain log files from the compromised systems. This includes logs from applications and operating system logs. </t>
+  </si>
+  <si>
+    <t>Cyber Education Worksheet</t>
+  </si>
+  <si>
+    <t>4 hours per employee</t>
+  </si>
+  <si>
+    <t>Every 6 months</t>
+  </si>
+  <si>
+    <t>Social Engineering Awareness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Below is a list of options for security awareness training in a variety of topic areas. Select one or more of the options presented below for you and your employees to view. Edit the list to reflect your selections. Make sure all employees review the required training. </t>
+  </si>
+  <si>
+    <t>Security Awareness: Phishing &amp; Ransomware</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Security Awareness: Vishing </t>
+  </si>
+  <si>
+    <t>(ISC)² U.S. Military Germany</t>
+  </si>
+  <si>
+    <t>SANS Security Awareness: Social Engineering</t>
+  </si>
+  <si>
+    <t>Social Engineering Webinar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Professor Messer </t>
+  </si>
+  <si>
+    <t>Authentication</t>
+  </si>
+  <si>
+    <t>Security Awareness: Passwords</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Professor Messer: Authentication Methods </t>
+  </si>
+  <si>
+    <t>Professor Messer: Password Attacks</t>
+  </si>
+  <si>
+    <t>Data Handling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Security Awareness on Data Handling </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DoD CyberExchange: Identifying &amp; Safeguarding PII </t>
+  </si>
+  <si>
+    <t>SANS Data Security</t>
+  </si>
+  <si>
+    <t>Unintentional Data Exposure</t>
+  </si>
+  <si>
+    <t>Security Awareness: Removable Media</t>
+  </si>
+  <si>
+    <t>Security Awareness: Data Leakage</t>
+  </si>
+  <si>
+    <t>Physical Security Awareness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reporting Security Incidents </t>
+  </si>
+  <si>
+    <t>Security Awareness Training: Reporting an Incident</t>
+  </si>
+  <si>
+    <t>Incident Reporting</t>
+  </si>
+  <si>
+    <t>Missing Security Updates</t>
+  </si>
+  <si>
+    <t>Software Updates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">End User Browsing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Security Awareness: Wifi </t>
+  </si>
+  <si>
+    <t>Connecting to Insecure Networks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,8 +635,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -410,8 +687,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="8"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -623,6 +906,74 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF0086BF"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF0086BF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF0086BF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF0086BF"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF0086BF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF0086BF"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0086BF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0086BF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0086BF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0086BF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF0086BF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0086BF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0086BF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -630,7 +981,7 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -662,6 +1013,24 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -692,8 +1061,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="14" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -706,24 +1081,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -743,6 +1100,54 @@
     <xf numFmtId="49" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="21" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="22" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="40% - Accent1" xfId="2" builtinId="31"/>
@@ -754,8 +1159,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0086BF"/>
       <color rgb="FF003B5C"/>
-      <color rgb="FF0086BF"/>
       <color rgb="FF00A3AD"/>
       <color rgb="FFDB8A06"/>
       <color rgb="FF74AA50"/>
@@ -1309,66 +1714,66 @@
   <dimension ref="A65:A77"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="140.140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="140.1640625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>19</v>
       </c>
@@ -1381,255 +1786,5059 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DC4D6C3-94B9-421E-ABEB-551FB29B4A06}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:W72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="47.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="47.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="31"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="14"/>
+    </row>
+    <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="1:23" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="39"/>
+    </row>
+    <row r="4" spans="1:23" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="32"/>
-    </row>
-    <row r="3" spans="1:11" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="37"/>
-    </row>
-    <row r="4" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="M4" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N4" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="41"/>
+    </row>
+    <row r="5" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="47"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="46"/>
+      <c r="W5" s="47"/>
+    </row>
+    <row r="6" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="44"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="43"/>
+      <c r="U6" s="43"/>
+      <c r="V6" s="43"/>
+      <c r="W6" s="44"/>
+    </row>
+    <row r="7" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="44"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="43"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="43"/>
+      <c r="V7" s="43"/>
+      <c r="W7" s="44"/>
+    </row>
+    <row r="8" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="44"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
+      <c r="V8" s="43"/>
+      <c r="W8" s="44"/>
+    </row>
+    <row r="9" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="44"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="43"/>
+      <c r="W9" s="44"/>
+    </row>
+    <row r="10" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="44"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="43"/>
+      <c r="U10" s="43"/>
+      <c r="V10" s="43"/>
+      <c r="W10" s="44"/>
+    </row>
+    <row r="11" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="44"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="O11" s="43"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="43"/>
+      <c r="V11" s="43"/>
+      <c r="W11" s="44"/>
+    </row>
+    <row r="12" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="44"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="O12" s="43"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="43"/>
+      <c r="S12" s="43"/>
+      <c r="T12" s="43"/>
+      <c r="U12" s="43"/>
+      <c r="V12" s="43"/>
+      <c r="W12" s="44"/>
+    </row>
+    <row r="13" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="44"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="O13" s="43"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="43"/>
+      <c r="S13" s="43"/>
+      <c r="T13" s="43"/>
+      <c r="U13" s="43"/>
+      <c r="V13" s="43"/>
+      <c r="W13" s="44"/>
+    </row>
+    <row r="14" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="44"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="43"/>
+      <c r="S14" s="43"/>
+      <c r="T14" s="43"/>
+      <c r="U14" s="43"/>
+      <c r="V14" s="43"/>
+      <c r="W14" s="44"/>
+    </row>
+    <row r="15" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="44"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="43"/>
+      <c r="T15" s="43"/>
+      <c r="U15" s="43"/>
+      <c r="V15" s="43"/>
+      <c r="W15" s="44"/>
+    </row>
+    <row r="16" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
+      <c r="B16" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="44"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="O16" s="43"/>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="43"/>
+      <c r="S16" s="43"/>
+      <c r="T16" s="43"/>
+      <c r="U16" s="43"/>
+      <c r="V16" s="43"/>
+      <c r="W16" s="44"/>
+    </row>
+    <row r="18" spans="1:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="M18" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N18" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="O18" s="41"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="41"/>
+      <c r="S18" s="41"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="41"/>
+      <c r="V18" s="41"/>
+      <c r="W18" s="41"/>
+    </row>
+    <row r="19" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="9"/>
+      <c r="B19" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="47"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="O19" s="46"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="46"/>
+      <c r="R19" s="46"/>
+      <c r="S19" s="46"/>
+      <c r="T19" s="46"/>
+      <c r="U19" s="46"/>
+      <c r="V19" s="46"/>
+      <c r="W19" s="47"/>
+    </row>
+    <row r="20" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="9"/>
+      <c r="B20" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="44"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="O20" s="43"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="43"/>
+      <c r="R20" s="43"/>
+      <c r="S20" s="43"/>
+      <c r="T20" s="43"/>
+      <c r="U20" s="43"/>
+      <c r="V20" s="43"/>
+      <c r="W20" s="44"/>
+    </row>
+    <row r="21" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="9"/>
+      <c r="B21" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="44"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="O21" s="43"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="43"/>
+      <c r="R21" s="43"/>
+      <c r="S21" s="43"/>
+      <c r="T21" s="43"/>
+      <c r="U21" s="43"/>
+      <c r="V21" s="43"/>
+      <c r="W21" s="44"/>
+    </row>
+    <row r="22" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="9"/>
+      <c r="B22" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="44"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="O22" s="43"/>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="43"/>
+      <c r="R22" s="43"/>
+      <c r="S22" s="43"/>
+      <c r="T22" s="43"/>
+      <c r="U22" s="43"/>
+      <c r="V22" s="43"/>
+      <c r="W22" s="44"/>
+    </row>
+    <row r="23" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="9"/>
+      <c r="B23" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="44"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="O23" s="43"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="43"/>
+      <c r="R23" s="43"/>
+      <c r="S23" s="43"/>
+      <c r="T23" s="43"/>
+      <c r="U23" s="43"/>
+      <c r="V23" s="43"/>
+      <c r="W23" s="44"/>
+    </row>
+    <row r="24" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="9"/>
+      <c r="B24" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="44"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="O24" s="43"/>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="43"/>
+      <c r="R24" s="43"/>
+      <c r="S24" s="43"/>
+      <c r="T24" s="43"/>
+      <c r="U24" s="43"/>
+      <c r="V24" s="43"/>
+      <c r="W24" s="44"/>
+    </row>
+    <row r="25" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="9"/>
+      <c r="B25" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="44"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="O25" s="43"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="43"/>
+      <c r="R25" s="43"/>
+      <c r="S25" s="43"/>
+      <c r="T25" s="43"/>
+      <c r="U25" s="43"/>
+      <c r="V25" s="43"/>
+      <c r="W25" s="44"/>
+    </row>
+    <row r="26" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="9"/>
+      <c r="B26" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="44"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="O26" s="43"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="43"/>
+      <c r="S26" s="43"/>
+      <c r="T26" s="43"/>
+      <c r="U26" s="43"/>
+      <c r="V26" s="43"/>
+      <c r="W26" s="44"/>
+    </row>
+    <row r="27" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="9"/>
+      <c r="B27" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="44"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="O27" s="43"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="43"/>
+      <c r="R27" s="43"/>
+      <c r="S27" s="43"/>
+      <c r="T27" s="43"/>
+      <c r="U27" s="43"/>
+      <c r="V27" s="43"/>
+      <c r="W27" s="44"/>
+    </row>
+    <row r="28" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="9"/>
+      <c r="B28" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="44"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="O28" s="43"/>
+      <c r="P28" s="43"/>
+      <c r="Q28" s="43"/>
+      <c r="R28" s="43"/>
+      <c r="S28" s="43"/>
+      <c r="T28" s="43"/>
+      <c r="U28" s="43"/>
+      <c r="V28" s="43"/>
+      <c r="W28" s="44"/>
+    </row>
+    <row r="29" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="9"/>
+      <c r="B29" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="44"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="O29" s="43"/>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="43"/>
+      <c r="R29" s="43"/>
+      <c r="S29" s="43"/>
+      <c r="T29" s="43"/>
+      <c r="U29" s="43"/>
+      <c r="V29" s="43"/>
+      <c r="W29" s="44"/>
+    </row>
+    <row r="30" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="9"/>
+      <c r="B30" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="44"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="O30" s="43"/>
+      <c r="P30" s="43"/>
+      <c r="Q30" s="43"/>
+      <c r="R30" s="43"/>
+      <c r="S30" s="43"/>
+      <c r="T30" s="43"/>
+      <c r="U30" s="43"/>
+      <c r="V30" s="43"/>
+      <c r="W30" s="44"/>
+    </row>
+    <row r="32" spans="1:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="M32" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N32" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="O32" s="41"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="41"/>
+      <c r="S32" s="41"/>
+      <c r="T32" s="41"/>
+      <c r="U32" s="41"/>
+      <c r="V32" s="41"/>
+      <c r="W32" s="41"/>
+    </row>
+    <row r="33" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="9"/>
+      <c r="B33" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="47"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="O33" s="46"/>
+      <c r="P33" s="46"/>
+      <c r="Q33" s="46"/>
+      <c r="R33" s="46"/>
+      <c r="S33" s="46"/>
+      <c r="T33" s="46"/>
+      <c r="U33" s="46"/>
+      <c r="V33" s="46"/>
+      <c r="W33" s="47"/>
+    </row>
+    <row r="34" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="9"/>
+      <c r="B34" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="44"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="O34" s="43"/>
+      <c r="P34" s="43"/>
+      <c r="Q34" s="43"/>
+      <c r="R34" s="43"/>
+      <c r="S34" s="43"/>
+      <c r="T34" s="43"/>
+      <c r="U34" s="43"/>
+      <c r="V34" s="43"/>
+      <c r="W34" s="44"/>
+    </row>
+    <row r="35" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="9"/>
+      <c r="B35" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="44"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="O35" s="43"/>
+      <c r="P35" s="43"/>
+      <c r="Q35" s="43"/>
+      <c r="R35" s="43"/>
+      <c r="S35" s="43"/>
+      <c r="T35" s="43"/>
+      <c r="U35" s="43"/>
+      <c r="V35" s="43"/>
+      <c r="W35" s="44"/>
+    </row>
+    <row r="36" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="9"/>
+      <c r="B36" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="44"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="O36" s="43"/>
+      <c r="P36" s="43"/>
+      <c r="Q36" s="43"/>
+      <c r="R36" s="43"/>
+      <c r="S36" s="43"/>
+      <c r="T36" s="43"/>
+      <c r="U36" s="43"/>
+      <c r="V36" s="43"/>
+      <c r="W36" s="44"/>
+    </row>
+    <row r="37" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="9"/>
+      <c r="B37" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="44"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="O37" s="43"/>
+      <c r="P37" s="43"/>
+      <c r="Q37" s="43"/>
+      <c r="R37" s="43"/>
+      <c r="S37" s="43"/>
+      <c r="T37" s="43"/>
+      <c r="U37" s="43"/>
+      <c r="V37" s="43"/>
+      <c r="W37" s="44"/>
+    </row>
+    <row r="38" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="9"/>
+      <c r="B38" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="44"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="O38" s="43"/>
+      <c r="P38" s="43"/>
+      <c r="Q38" s="43"/>
+      <c r="R38" s="43"/>
+      <c r="S38" s="43"/>
+      <c r="T38" s="43"/>
+      <c r="U38" s="43"/>
+      <c r="V38" s="43"/>
+      <c r="W38" s="44"/>
+    </row>
+    <row r="39" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="9"/>
+      <c r="B39" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="44"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="O39" s="43"/>
+      <c r="P39" s="43"/>
+      <c r="Q39" s="43"/>
+      <c r="R39" s="43"/>
+      <c r="S39" s="43"/>
+      <c r="T39" s="43"/>
+      <c r="U39" s="43"/>
+      <c r="V39" s="43"/>
+      <c r="W39" s="44"/>
+    </row>
+    <row r="40" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="9"/>
+      <c r="B40" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="44"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="O40" s="43"/>
+      <c r="P40" s="43"/>
+      <c r="Q40" s="43"/>
+      <c r="R40" s="43"/>
+      <c r="S40" s="43"/>
+      <c r="T40" s="43"/>
+      <c r="U40" s="43"/>
+      <c r="V40" s="43"/>
+      <c r="W40" s="44"/>
+    </row>
+    <row r="41" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="9"/>
+      <c r="B41" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="43"/>
+      <c r="K41" s="44"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="O41" s="43"/>
+      <c r="P41" s="43"/>
+      <c r="Q41" s="43"/>
+      <c r="R41" s="43"/>
+      <c r="S41" s="43"/>
+      <c r="T41" s="43"/>
+      <c r="U41" s="43"/>
+      <c r="V41" s="43"/>
+      <c r="W41" s="44"/>
+    </row>
+    <row r="42" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="9"/>
+      <c r="B42" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="43"/>
+      <c r="K42" s="44"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="O42" s="43"/>
+      <c r="P42" s="43"/>
+      <c r="Q42" s="43"/>
+      <c r="R42" s="43"/>
+      <c r="S42" s="43"/>
+      <c r="T42" s="43"/>
+      <c r="U42" s="43"/>
+      <c r="V42" s="43"/>
+      <c r="W42" s="44"/>
+    </row>
+    <row r="43" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="9"/>
+      <c r="B43" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
+      <c r="K43" s="44"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="O43" s="43"/>
+      <c r="P43" s="43"/>
+      <c r="Q43" s="43"/>
+      <c r="R43" s="43"/>
+      <c r="S43" s="43"/>
+      <c r="T43" s="43"/>
+      <c r="U43" s="43"/>
+      <c r="V43" s="43"/>
+      <c r="W43" s="44"/>
+    </row>
+    <row r="44" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="9"/>
+      <c r="B44" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
+      <c r="K44" s="44"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="O44" s="43"/>
+      <c r="P44" s="43"/>
+      <c r="Q44" s="43"/>
+      <c r="R44" s="43"/>
+      <c r="S44" s="43"/>
+      <c r="T44" s="43"/>
+      <c r="U44" s="43"/>
+      <c r="V44" s="43"/>
+      <c r="W44" s="44"/>
+    </row>
+    <row r="46" spans="1:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="41"/>
+      <c r="K46" s="41"/>
+      <c r="M46" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N46" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="O46" s="41"/>
+      <c r="P46" s="41"/>
+      <c r="Q46" s="41"/>
+      <c r="R46" s="41"/>
+      <c r="S46" s="41"/>
+      <c r="T46" s="41"/>
+      <c r="U46" s="41"/>
+      <c r="V46" s="41"/>
+      <c r="W46" s="41"/>
+    </row>
+    <row r="47" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="9"/>
+      <c r="B47" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="46"/>
+      <c r="J47" s="46"/>
+      <c r="K47" s="47"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="O47" s="46"/>
+      <c r="P47" s="46"/>
+      <c r="Q47" s="46"/>
+      <c r="R47" s="46"/>
+      <c r="S47" s="46"/>
+      <c r="T47" s="46"/>
+      <c r="U47" s="46"/>
+      <c r="V47" s="46"/>
+      <c r="W47" s="47"/>
+    </row>
+    <row r="48" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="9"/>
+      <c r="B48" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="44"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="O48" s="43"/>
+      <c r="P48" s="43"/>
+      <c r="Q48" s="43"/>
+      <c r="R48" s="43"/>
+      <c r="S48" s="43"/>
+      <c r="T48" s="43"/>
+      <c r="U48" s="43"/>
+      <c r="V48" s="43"/>
+      <c r="W48" s="44"/>
+    </row>
+    <row r="49" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="9"/>
+      <c r="B49" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="43"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="43"/>
+      <c r="K49" s="44"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="O49" s="43"/>
+      <c r="P49" s="43"/>
+      <c r="Q49" s="43"/>
+      <c r="R49" s="43"/>
+      <c r="S49" s="43"/>
+      <c r="T49" s="43"/>
+      <c r="U49" s="43"/>
+      <c r="V49" s="43"/>
+      <c r="W49" s="44"/>
+    </row>
+    <row r="50" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="9"/>
+      <c r="B50" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="43"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="43"/>
+      <c r="K50" s="44"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="O50" s="43"/>
+      <c r="P50" s="43"/>
+      <c r="Q50" s="43"/>
+      <c r="R50" s="43"/>
+      <c r="S50" s="43"/>
+      <c r="T50" s="43"/>
+      <c r="U50" s="43"/>
+      <c r="V50" s="43"/>
+      <c r="W50" s="44"/>
+    </row>
+    <row r="51" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51" s="9"/>
+      <c r="B51" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="43"/>
+      <c r="J51" s="43"/>
+      <c r="K51" s="44"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="O51" s="43"/>
+      <c r="P51" s="43"/>
+      <c r="Q51" s="43"/>
+      <c r="R51" s="43"/>
+      <c r="S51" s="43"/>
+      <c r="T51" s="43"/>
+      <c r="U51" s="43"/>
+      <c r="V51" s="43"/>
+      <c r="W51" s="44"/>
+    </row>
+    <row r="52" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" s="9"/>
+      <c r="B52" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52" s="43"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="43"/>
+      <c r="I52" s="43"/>
+      <c r="J52" s="43"/>
+      <c r="K52" s="44"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="O52" s="43"/>
+      <c r="P52" s="43"/>
+      <c r="Q52" s="43"/>
+      <c r="R52" s="43"/>
+      <c r="S52" s="43"/>
+      <c r="T52" s="43"/>
+      <c r="U52" s="43"/>
+      <c r="V52" s="43"/>
+      <c r="W52" s="44"/>
+    </row>
+    <row r="53" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A53" s="9"/>
+      <c r="B53" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="43"/>
+      <c r="I53" s="43"/>
+      <c r="J53" s="43"/>
+      <c r="K53" s="44"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="O53" s="43"/>
+      <c r="P53" s="43"/>
+      <c r="Q53" s="43"/>
+      <c r="R53" s="43"/>
+      <c r="S53" s="43"/>
+      <c r="T53" s="43"/>
+      <c r="U53" s="43"/>
+      <c r="V53" s="43"/>
+      <c r="W53" s="44"/>
+    </row>
+    <row r="54" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54" s="9"/>
+      <c r="B54" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="C54" s="43"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="43"/>
+      <c r="H54" s="43"/>
+      <c r="I54" s="43"/>
+      <c r="J54" s="43"/>
+      <c r="K54" s="44"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="O54" s="43"/>
+      <c r="P54" s="43"/>
+      <c r="Q54" s="43"/>
+      <c r="R54" s="43"/>
+      <c r="S54" s="43"/>
+      <c r="T54" s="43"/>
+      <c r="U54" s="43"/>
+      <c r="V54" s="43"/>
+      <c r="W54" s="44"/>
+    </row>
+    <row r="55" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="9"/>
+      <c r="B55" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" s="43"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="43"/>
+      <c r="H55" s="43"/>
+      <c r="I55" s="43"/>
+      <c r="J55" s="43"/>
+      <c r="K55" s="44"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="O55" s="43"/>
+      <c r="P55" s="43"/>
+      <c r="Q55" s="43"/>
+      <c r="R55" s="43"/>
+      <c r="S55" s="43"/>
+      <c r="T55" s="43"/>
+      <c r="U55" s="43"/>
+      <c r="V55" s="43"/>
+      <c r="W55" s="44"/>
+    </row>
+    <row r="56" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="9"/>
+      <c r="B56" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="C56" s="43"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="43"/>
+      <c r="H56" s="43"/>
+      <c r="I56" s="43"/>
+      <c r="J56" s="43"/>
+      <c r="K56" s="44"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="O56" s="43"/>
+      <c r="P56" s="43"/>
+      <c r="Q56" s="43"/>
+      <c r="R56" s="43"/>
+      <c r="S56" s="43"/>
+      <c r="T56" s="43"/>
+      <c r="U56" s="43"/>
+      <c r="V56" s="43"/>
+      <c r="W56" s="44"/>
+    </row>
+    <row r="57" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A57" s="9"/>
+      <c r="B57" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="43"/>
+      <c r="I57" s="43"/>
+      <c r="J57" s="43"/>
+      <c r="K57" s="44"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="O57" s="43"/>
+      <c r="P57" s="43"/>
+      <c r="Q57" s="43"/>
+      <c r="R57" s="43"/>
+      <c r="S57" s="43"/>
+      <c r="T57" s="43"/>
+      <c r="U57" s="43"/>
+      <c r="V57" s="43"/>
+      <c r="W57" s="44"/>
+    </row>
+    <row r="58" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58" s="9"/>
+      <c r="B58" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C58" s="43"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="43"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="43"/>
+      <c r="H58" s="43"/>
+      <c r="I58" s="43"/>
+      <c r="J58" s="43"/>
+      <c r="K58" s="44"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="O58" s="43"/>
+      <c r="P58" s="43"/>
+      <c r="Q58" s="43"/>
+      <c r="R58" s="43"/>
+      <c r="S58" s="43"/>
+      <c r="T58" s="43"/>
+      <c r="U58" s="43"/>
+      <c r="V58" s="43"/>
+      <c r="W58" s="44"/>
+    </row>
+    <row r="60" spans="1:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C60" s="41"/>
+      <c r="D60" s="41"/>
+      <c r="E60" s="41"/>
+      <c r="F60" s="41"/>
+      <c r="G60" s="41"/>
+      <c r="H60" s="41"/>
+      <c r="I60" s="41"/>
+      <c r="J60" s="41"/>
+      <c r="K60" s="41"/>
+      <c r="M60" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N60" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="O60" s="41"/>
+      <c r="P60" s="41"/>
+      <c r="Q60" s="41"/>
+      <c r="R60" s="41"/>
+      <c r="S60" s="41"/>
+      <c r="T60" s="41"/>
+      <c r="U60" s="41"/>
+      <c r="V60" s="41"/>
+      <c r="W60" s="41"/>
+    </row>
+    <row r="61" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A61" s="9"/>
+      <c r="B61" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="C61" s="46"/>
+      <c r="D61" s="46"/>
+      <c r="E61" s="46"/>
+      <c r="F61" s="46"/>
+      <c r="G61" s="46"/>
+      <c r="H61" s="46"/>
+      <c r="I61" s="46"/>
+      <c r="J61" s="46"/>
+      <c r="K61" s="47"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="O61" s="46"/>
+      <c r="P61" s="46"/>
+      <c r="Q61" s="46"/>
+      <c r="R61" s="46"/>
+      <c r="S61" s="46"/>
+      <c r="T61" s="46"/>
+      <c r="U61" s="46"/>
+      <c r="V61" s="46"/>
+      <c r="W61" s="47"/>
+    </row>
+    <row r="62" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A62" s="9"/>
+      <c r="B62" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" s="43"/>
+      <c r="D62" s="43"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="43"/>
+      <c r="G62" s="43"/>
+      <c r="H62" s="43"/>
+      <c r="I62" s="43"/>
+      <c r="J62" s="43"/>
+      <c r="K62" s="44"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="O62" s="43"/>
+      <c r="P62" s="43"/>
+      <c r="Q62" s="43"/>
+      <c r="R62" s="43"/>
+      <c r="S62" s="43"/>
+      <c r="T62" s="43"/>
+      <c r="U62" s="43"/>
+      <c r="V62" s="43"/>
+      <c r="W62" s="44"/>
+    </row>
+    <row r="63" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A63" s="9"/>
+      <c r="B63" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63" s="43"/>
+      <c r="D63" s="43"/>
+      <c r="E63" s="43"/>
+      <c r="F63" s="43"/>
+      <c r="G63" s="43"/>
+      <c r="H63" s="43"/>
+      <c r="I63" s="43"/>
+      <c r="J63" s="43"/>
+      <c r="K63" s="44"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="O63" s="43"/>
+      <c r="P63" s="43"/>
+      <c r="Q63" s="43"/>
+      <c r="R63" s="43"/>
+      <c r="S63" s="43"/>
+      <c r="T63" s="43"/>
+      <c r="U63" s="43"/>
+      <c r="V63" s="43"/>
+      <c r="W63" s="44"/>
+    </row>
+    <row r="64" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A64" s="9"/>
+      <c r="B64" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C64" s="43"/>
+      <c r="D64" s="43"/>
+      <c r="E64" s="43"/>
+      <c r="F64" s="43"/>
+      <c r="G64" s="43"/>
+      <c r="H64" s="43"/>
+      <c r="I64" s="43"/>
+      <c r="J64" s="43"/>
+      <c r="K64" s="44"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="O64" s="43"/>
+      <c r="P64" s="43"/>
+      <c r="Q64" s="43"/>
+      <c r="R64" s="43"/>
+      <c r="S64" s="43"/>
+      <c r="T64" s="43"/>
+      <c r="U64" s="43"/>
+      <c r="V64" s="43"/>
+      <c r="W64" s="44"/>
+    </row>
+    <row r="65" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A65" s="9"/>
+      <c r="B65" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C65" s="43"/>
+      <c r="D65" s="43"/>
+      <c r="E65" s="43"/>
+      <c r="F65" s="43"/>
+      <c r="G65" s="43"/>
+      <c r="H65" s="43"/>
+      <c r="I65" s="43"/>
+      <c r="J65" s="43"/>
+      <c r="K65" s="44"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="O65" s="43"/>
+      <c r="P65" s="43"/>
+      <c r="Q65" s="43"/>
+      <c r="R65" s="43"/>
+      <c r="S65" s="43"/>
+      <c r="T65" s="43"/>
+      <c r="U65" s="43"/>
+      <c r="V65" s="43"/>
+      <c r="W65" s="44"/>
+    </row>
+    <row r="66" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A66" s="9"/>
+      <c r="B66" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="43"/>
+      <c r="I66" s="43"/>
+      <c r="J66" s="43"/>
+      <c r="K66" s="44"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="O66" s="43"/>
+      <c r="P66" s="43"/>
+      <c r="Q66" s="43"/>
+      <c r="R66" s="43"/>
+      <c r="S66" s="43"/>
+      <c r="T66" s="43"/>
+      <c r="U66" s="43"/>
+      <c r="V66" s="43"/>
+      <c r="W66" s="44"/>
+    </row>
+    <row r="67" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A67" s="9"/>
+      <c r="B67" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="C67" s="43"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="43"/>
+      <c r="F67" s="43"/>
+      <c r="G67" s="43"/>
+      <c r="H67" s="43"/>
+      <c r="I67" s="43"/>
+      <c r="J67" s="43"/>
+      <c r="K67" s="44"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="O67" s="43"/>
+      <c r="P67" s="43"/>
+      <c r="Q67" s="43"/>
+      <c r="R67" s="43"/>
+      <c r="S67" s="43"/>
+      <c r="T67" s="43"/>
+      <c r="U67" s="43"/>
+      <c r="V67" s="43"/>
+      <c r="W67" s="44"/>
+    </row>
+    <row r="68" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A68" s="9"/>
+      <c r="B68" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="C68" s="43"/>
+      <c r="D68" s="43"/>
+      <c r="E68" s="43"/>
+      <c r="F68" s="43"/>
+      <c r="G68" s="43"/>
+      <c r="H68" s="43"/>
+      <c r="I68" s="43"/>
+      <c r="J68" s="43"/>
+      <c r="K68" s="44"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="O68" s="43"/>
+      <c r="P68" s="43"/>
+      <c r="Q68" s="43"/>
+      <c r="R68" s="43"/>
+      <c r="S68" s="43"/>
+      <c r="T68" s="43"/>
+      <c r="U68" s="43"/>
+      <c r="V68" s="43"/>
+      <c r="W68" s="44"/>
+    </row>
+    <row r="69" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A69" s="9"/>
+      <c r="B69" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="C69" s="43"/>
+      <c r="D69" s="43"/>
+      <c r="E69" s="43"/>
+      <c r="F69" s="43"/>
+      <c r="G69" s="43"/>
+      <c r="H69" s="43"/>
+      <c r="I69" s="43"/>
+      <c r="J69" s="43"/>
+      <c r="K69" s="44"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="O69" s="43"/>
+      <c r="P69" s="43"/>
+      <c r="Q69" s="43"/>
+      <c r="R69" s="43"/>
+      <c r="S69" s="43"/>
+      <c r="T69" s="43"/>
+      <c r="U69" s="43"/>
+      <c r="V69" s="43"/>
+      <c r="W69" s="44"/>
+    </row>
+    <row r="70" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A70" s="9"/>
+      <c r="B70" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="C70" s="43"/>
+      <c r="D70" s="43"/>
+      <c r="E70" s="43"/>
+      <c r="F70" s="43"/>
+      <c r="G70" s="43"/>
+      <c r="H70" s="43"/>
+      <c r="I70" s="43"/>
+      <c r="J70" s="43"/>
+      <c r="K70" s="44"/>
+      <c r="M70" s="9"/>
+      <c r="N70" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="O70" s="43"/>
+      <c r="P70" s="43"/>
+      <c r="Q70" s="43"/>
+      <c r="R70" s="43"/>
+      <c r="S70" s="43"/>
+      <c r="T70" s="43"/>
+      <c r="U70" s="43"/>
+      <c r="V70" s="43"/>
+      <c r="W70" s="44"/>
+    </row>
+    <row r="71" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A71" s="9"/>
+      <c r="B71" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="C71" s="43"/>
+      <c r="D71" s="43"/>
+      <c r="E71" s="43"/>
+      <c r="F71" s="43"/>
+      <c r="G71" s="43"/>
+      <c r="H71" s="43"/>
+      <c r="I71" s="43"/>
+      <c r="J71" s="43"/>
+      <c r="K71" s="44"/>
+      <c r="M71" s="9"/>
+      <c r="N71" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="O71" s="43"/>
+      <c r="P71" s="43"/>
+      <c r="Q71" s="43"/>
+      <c r="R71" s="43"/>
+      <c r="S71" s="43"/>
+      <c r="T71" s="43"/>
+      <c r="U71" s="43"/>
+      <c r="V71" s="43"/>
+      <c r="W71" s="44"/>
+    </row>
+    <row r="72" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A72" s="9"/>
+      <c r="B72" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C72" s="43"/>
+      <c r="D72" s="43"/>
+      <c r="E72" s="43"/>
+      <c r="F72" s="43"/>
+      <c r="G72" s="43"/>
+      <c r="H72" s="43"/>
+      <c r="I72" s="43"/>
+      <c r="J72" s="43"/>
+      <c r="K72" s="44"/>
+      <c r="M72" s="9"/>
+      <c r="N72" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="O72" s="43"/>
+      <c r="P72" s="43"/>
+      <c r="Q72" s="43"/>
+      <c r="R72" s="43"/>
+      <c r="S72" s="43"/>
+      <c r="T72" s="43"/>
+      <c r="U72" s="43"/>
+      <c r="V72" s="43"/>
+      <c r="W72" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="134">
+    <mergeCell ref="N70:W70"/>
+    <mergeCell ref="N71:W71"/>
+    <mergeCell ref="N72:W72"/>
+    <mergeCell ref="N65:W65"/>
+    <mergeCell ref="N66:W66"/>
+    <mergeCell ref="N67:W67"/>
+    <mergeCell ref="N68:W68"/>
+    <mergeCell ref="N69:W69"/>
+    <mergeCell ref="N60:W60"/>
+    <mergeCell ref="N61:W61"/>
+    <mergeCell ref="N62:W62"/>
+    <mergeCell ref="N63:W63"/>
+    <mergeCell ref="N64:W64"/>
+    <mergeCell ref="N54:W54"/>
+    <mergeCell ref="N55:W55"/>
+    <mergeCell ref="N56:W56"/>
+    <mergeCell ref="N57:W57"/>
+    <mergeCell ref="N58:W58"/>
+    <mergeCell ref="N49:W49"/>
+    <mergeCell ref="N50:W50"/>
+    <mergeCell ref="N51:W51"/>
+    <mergeCell ref="N52:W52"/>
+    <mergeCell ref="N53:W53"/>
+    <mergeCell ref="N43:W43"/>
+    <mergeCell ref="N44:W44"/>
+    <mergeCell ref="N46:W46"/>
+    <mergeCell ref="N47:W47"/>
+    <mergeCell ref="N48:W48"/>
+    <mergeCell ref="N38:W38"/>
+    <mergeCell ref="N39:W39"/>
+    <mergeCell ref="N40:W40"/>
+    <mergeCell ref="N41:W41"/>
+    <mergeCell ref="N42:W42"/>
+    <mergeCell ref="N33:W33"/>
+    <mergeCell ref="N34:W34"/>
+    <mergeCell ref="N35:W35"/>
+    <mergeCell ref="N36:W36"/>
+    <mergeCell ref="N37:W37"/>
+    <mergeCell ref="N27:W27"/>
+    <mergeCell ref="N28:W28"/>
+    <mergeCell ref="N29:W29"/>
+    <mergeCell ref="N30:W30"/>
+    <mergeCell ref="N32:W32"/>
+    <mergeCell ref="N22:W22"/>
+    <mergeCell ref="N23:W23"/>
+    <mergeCell ref="N24:W24"/>
+    <mergeCell ref="N25:W25"/>
+    <mergeCell ref="N26:W26"/>
+    <mergeCell ref="N16:W16"/>
+    <mergeCell ref="N18:W18"/>
+    <mergeCell ref="N19:W19"/>
+    <mergeCell ref="N20:W20"/>
+    <mergeCell ref="N21:W21"/>
+    <mergeCell ref="B69:K69"/>
+    <mergeCell ref="B70:K70"/>
+    <mergeCell ref="B71:K71"/>
+    <mergeCell ref="B72:K72"/>
+    <mergeCell ref="N4:W4"/>
+    <mergeCell ref="N5:W5"/>
+    <mergeCell ref="N6:W6"/>
+    <mergeCell ref="N7:W7"/>
+    <mergeCell ref="N8:W8"/>
+    <mergeCell ref="N9:W9"/>
+    <mergeCell ref="N10:W10"/>
+    <mergeCell ref="N11:W11"/>
+    <mergeCell ref="N12:W12"/>
+    <mergeCell ref="N13:W13"/>
+    <mergeCell ref="N14:W14"/>
+    <mergeCell ref="N15:W15"/>
+    <mergeCell ref="B64:K64"/>
+    <mergeCell ref="B65:K65"/>
+    <mergeCell ref="B66:K66"/>
+    <mergeCell ref="B67:K67"/>
+    <mergeCell ref="B68:K68"/>
+    <mergeCell ref="B58:K58"/>
+    <mergeCell ref="B60:K60"/>
+    <mergeCell ref="B61:K61"/>
+    <mergeCell ref="B62:K62"/>
+    <mergeCell ref="B63:K63"/>
+    <mergeCell ref="B53:K53"/>
+    <mergeCell ref="B54:K54"/>
+    <mergeCell ref="B55:K55"/>
+    <mergeCell ref="B56:K56"/>
+    <mergeCell ref="B57:K57"/>
+    <mergeCell ref="B48:K48"/>
+    <mergeCell ref="B49:K49"/>
+    <mergeCell ref="B50:K50"/>
+    <mergeCell ref="B51:K51"/>
+    <mergeCell ref="B52:K52"/>
+    <mergeCell ref="B43:K43"/>
+    <mergeCell ref="B44:K44"/>
+    <mergeCell ref="B46:K46"/>
+    <mergeCell ref="B47:K47"/>
+    <mergeCell ref="B37:K37"/>
+    <mergeCell ref="B38:K38"/>
+    <mergeCell ref="B39:K39"/>
+    <mergeCell ref="B40:K40"/>
+    <mergeCell ref="B41:K41"/>
+    <mergeCell ref="B34:K34"/>
+    <mergeCell ref="B35:K35"/>
+    <mergeCell ref="B36:K36"/>
+    <mergeCell ref="B26:K26"/>
+    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B29:K29"/>
+    <mergeCell ref="B30:K30"/>
+    <mergeCell ref="B42:K42"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="B25:K25"/>
+    <mergeCell ref="B15:K15"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="B20:K20"/>
+    <mergeCell ref="B32:K32"/>
+    <mergeCell ref="B33:K33"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="B9:K9"/>
+    <mergeCell ref="B21:K21"/>
+    <mergeCell ref="B22:K22"/>
+    <mergeCell ref="B23:K23"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="A2:D3"/>
     <mergeCell ref="G3:K3"/>
-    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B10:K10"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="B12:K12"/>
+    <mergeCell ref="B13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83AB85B5-D1FB-4224-A749-B7BF9DB00CE1}">
+  <dimension ref="A1:W32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="47.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="14"/>
+    </row>
+    <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="1:23" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="39"/>
+    </row>
+    <row r="4" spans="1:23" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="M4" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N4" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="41"/>
+    </row>
+    <row r="5" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="9"/>
+      <c r="B5" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="47"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="46"/>
+      <c r="W5" s="47"/>
+    </row>
+    <row r="6" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="9"/>
+      <c r="B6" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="44"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="43"/>
+      <c r="U6" s="43"/>
+      <c r="V6" s="43"/>
+      <c r="W6" s="44"/>
+    </row>
+    <row r="7" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="9"/>
+      <c r="B7" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="44"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="43"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="43"/>
+      <c r="V7" s="43"/>
+      <c r="W7" s="44"/>
+    </row>
+    <row r="8" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="9"/>
+      <c r="B8" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="44"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
+      <c r="V8" s="43"/>
+      <c r="W8" s="44"/>
+    </row>
+    <row r="10" spans="1:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="M10" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N10" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="41"/>
+      <c r="U10" s="41"/>
+      <c r="V10" s="41"/>
+      <c r="W10" s="41"/>
+    </row>
+    <row r="11" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="9"/>
+      <c r="B11" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="47"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="46"/>
+      <c r="S11" s="46"/>
+      <c r="T11" s="46"/>
+      <c r="U11" s="46"/>
+      <c r="V11" s="46"/>
+      <c r="W11" s="47"/>
+    </row>
+    <row r="12" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="9"/>
+      <c r="B12" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="44"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="O12" s="43"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="43"/>
+      <c r="S12" s="43"/>
+      <c r="T12" s="43"/>
+      <c r="U12" s="43"/>
+      <c r="V12" s="43"/>
+      <c r="W12" s="44"/>
+    </row>
+    <row r="13" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="9"/>
+      <c r="B13" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="44"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="O13" s="43"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="43"/>
+      <c r="S13" s="43"/>
+      <c r="T13" s="43"/>
+      <c r="U13" s="43"/>
+      <c r="V13" s="43"/>
+      <c r="W13" s="44"/>
+    </row>
+    <row r="14" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
+      <c r="B14" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="44"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="43"/>
+      <c r="S14" s="43"/>
+      <c r="T14" s="43"/>
+      <c r="U14" s="43"/>
+      <c r="V14" s="43"/>
+      <c r="W14" s="44"/>
+    </row>
+    <row r="16" spans="1:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="M16" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N16" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="41"/>
+      <c r="S16" s="41"/>
+      <c r="T16" s="41"/>
+      <c r="U16" s="41"/>
+      <c r="V16" s="41"/>
+      <c r="W16" s="41"/>
+    </row>
+    <row r="17" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="9"/>
+      <c r="B17" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="47"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="O17" s="46"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="46"/>
+      <c r="S17" s="46"/>
+      <c r="T17" s="46"/>
+      <c r="U17" s="46"/>
+      <c r="V17" s="46"/>
+      <c r="W17" s="47"/>
+    </row>
+    <row r="18" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="9"/>
+      <c r="B18" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="44"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="O18" s="43"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="43"/>
+      <c r="S18" s="43"/>
+      <c r="T18" s="43"/>
+      <c r="U18" s="43"/>
+      <c r="V18" s="43"/>
+      <c r="W18" s="44"/>
+    </row>
+    <row r="19" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="9"/>
+      <c r="B19" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="44"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="O19" s="43"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="43"/>
+      <c r="T19" s="43"/>
+      <c r="U19" s="43"/>
+      <c r="V19" s="43"/>
+      <c r="W19" s="44"/>
+    </row>
+    <row r="20" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="9"/>
+      <c r="B20" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="44"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="O20" s="43"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="43"/>
+      <c r="R20" s="43"/>
+      <c r="S20" s="43"/>
+      <c r="T20" s="43"/>
+      <c r="U20" s="43"/>
+      <c r="V20" s="43"/>
+      <c r="W20" s="44"/>
+    </row>
+    <row r="22" spans="1:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="M22" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N22" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="O22" s="41"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="41"/>
+      <c r="T22" s="41"/>
+      <c r="U22" s="41"/>
+      <c r="V22" s="41"/>
+      <c r="W22" s="41"/>
+    </row>
+    <row r="23" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="9"/>
+      <c r="B23" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="47"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="O23" s="46"/>
+      <c r="P23" s="46"/>
+      <c r="Q23" s="46"/>
+      <c r="R23" s="46"/>
+      <c r="S23" s="46"/>
+      <c r="T23" s="46"/>
+      <c r="U23" s="46"/>
+      <c r="V23" s="46"/>
+      <c r="W23" s="47"/>
+    </row>
+    <row r="24" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="9"/>
+      <c r="B24" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="44"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="O24" s="43"/>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="43"/>
+      <c r="R24" s="43"/>
+      <c r="S24" s="43"/>
+      <c r="T24" s="43"/>
+      <c r="U24" s="43"/>
+      <c r="V24" s="43"/>
+      <c r="W24" s="44"/>
+    </row>
+    <row r="25" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="9"/>
+      <c r="B25" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="44"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="O25" s="43"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="43"/>
+      <c r="R25" s="43"/>
+      <c r="S25" s="43"/>
+      <c r="T25" s="43"/>
+      <c r="U25" s="43"/>
+      <c r="V25" s="43"/>
+      <c r="W25" s="44"/>
+    </row>
+    <row r="26" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="9"/>
+      <c r="B26" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="44"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="O26" s="43"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="43"/>
+      <c r="S26" s="43"/>
+      <c r="T26" s="43"/>
+      <c r="U26" s="43"/>
+      <c r="V26" s="43"/>
+      <c r="W26" s="44"/>
+    </row>
+    <row r="28" spans="1:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="M28" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N28" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="O28" s="41"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="41"/>
+      <c r="S28" s="41"/>
+      <c r="T28" s="41"/>
+      <c r="U28" s="41"/>
+      <c r="V28" s="41"/>
+      <c r="W28" s="41"/>
+    </row>
+    <row r="29" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="9"/>
+      <c r="B29" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="47"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="O29" s="46"/>
+      <c r="P29" s="46"/>
+      <c r="Q29" s="46"/>
+      <c r="R29" s="46"/>
+      <c r="S29" s="46"/>
+      <c r="T29" s="46"/>
+      <c r="U29" s="46"/>
+      <c r="V29" s="46"/>
+      <c r="W29" s="47"/>
+    </row>
+    <row r="30" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="9"/>
+      <c r="B30" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="44"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="O30" s="43"/>
+      <c r="P30" s="43"/>
+      <c r="Q30" s="43"/>
+      <c r="R30" s="43"/>
+      <c r="S30" s="43"/>
+      <c r="T30" s="43"/>
+      <c r="U30" s="43"/>
+      <c r="V30" s="43"/>
+      <c r="W30" s="44"/>
+    </row>
+    <row r="31" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="9"/>
+      <c r="B31" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="44"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="O31" s="43"/>
+      <c r="P31" s="43"/>
+      <c r="Q31" s="43"/>
+      <c r="R31" s="43"/>
+      <c r="S31" s="43"/>
+      <c r="T31" s="43"/>
+      <c r="U31" s="43"/>
+      <c r="V31" s="43"/>
+      <c r="W31" s="44"/>
+    </row>
+    <row r="32" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="9"/>
+      <c r="B32" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="44"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="O32" s="43"/>
+      <c r="P32" s="43"/>
+      <c r="Q32" s="43"/>
+      <c r="R32" s="43"/>
+      <c r="S32" s="43"/>
+      <c r="T32" s="43"/>
+      <c r="U32" s="43"/>
+      <c r="V32" s="43"/>
+      <c r="W32" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="54">
+    <mergeCell ref="B26:K26"/>
+    <mergeCell ref="N26:W26"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="N28:W28"/>
+    <mergeCell ref="B32:K32"/>
+    <mergeCell ref="N32:W32"/>
+    <mergeCell ref="B29:K29"/>
+    <mergeCell ref="N29:W29"/>
+    <mergeCell ref="B30:K30"/>
+    <mergeCell ref="N30:W30"/>
+    <mergeCell ref="B31:K31"/>
+    <mergeCell ref="N31:W31"/>
+    <mergeCell ref="B22:K22"/>
+    <mergeCell ref="N22:W22"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="N24:W24"/>
+    <mergeCell ref="B25:K25"/>
+    <mergeCell ref="N25:W25"/>
+    <mergeCell ref="B23:K23"/>
+    <mergeCell ref="N23:W23"/>
+    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="N19:W19"/>
+    <mergeCell ref="B20:K20"/>
+    <mergeCell ref="N20:W20"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="N16:W16"/>
+    <mergeCell ref="B17:K17"/>
+    <mergeCell ref="N17:W17"/>
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="N18:W18"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="N13:W13"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="N14:W14"/>
+    <mergeCell ref="B10:K10"/>
+    <mergeCell ref="N10:W10"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="N11:W11"/>
+    <mergeCell ref="B12:K12"/>
+    <mergeCell ref="N12:W12"/>
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="N8:W8"/>
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="N5:W5"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="N6:W6"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="N7:W7"/>
+    <mergeCell ref="N4:W4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="A2:D3"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="B4:K4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B55623A-C451-4703-AE64-9D68992C5DB5}">
+  <dimension ref="A1:W47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:K4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="47.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="14"/>
+    </row>
+    <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="1:23" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="39"/>
+    </row>
+    <row r="4" spans="1:23" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="M4" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N4" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="41"/>
+    </row>
+    <row r="5" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="9"/>
+      <c r="B5" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="47"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="46"/>
+      <c r="W5" s="47"/>
+    </row>
+    <row r="6" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="9"/>
+      <c r="B6" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="44"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="43"/>
+      <c r="U6" s="43"/>
+      <c r="V6" s="43"/>
+      <c r="W6" s="44"/>
+    </row>
+    <row r="7" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="9"/>
+      <c r="B7" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="44"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="43"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="43"/>
+      <c r="V7" s="43"/>
+      <c r="W7" s="44"/>
+    </row>
+    <row r="8" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="9"/>
+      <c r="B8" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="44"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
+      <c r="V8" s="43"/>
+      <c r="W8" s="44"/>
+    </row>
+    <row r="9" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="9"/>
+      <c r="B9" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="44"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="43"/>
+      <c r="W9" s="44"/>
+    </row>
+    <row r="10" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="9"/>
+      <c r="B10" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="44"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="43"/>
+      <c r="U10" s="43"/>
+      <c r="V10" s="43"/>
+      <c r="W10" s="44"/>
+    </row>
+    <row r="11" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="9"/>
+      <c r="B11" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="44"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="O11" s="43"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="43"/>
+      <c r="V11" s="43"/>
+      <c r="W11" s="44"/>
+    </row>
+    <row r="13" spans="1:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="M13" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N13" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="41"/>
+      <c r="W13" s="41"/>
+    </row>
+    <row r="14" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
+      <c r="B14" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="47"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="O14" s="46"/>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="46"/>
+      <c r="R14" s="46"/>
+      <c r="S14" s="46"/>
+      <c r="T14" s="46"/>
+      <c r="U14" s="46"/>
+      <c r="V14" s="46"/>
+      <c r="W14" s="47"/>
+    </row>
+    <row r="15" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="9"/>
+      <c r="B15" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="44"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="43"/>
+      <c r="T15" s="43"/>
+      <c r="U15" s="43"/>
+      <c r="V15" s="43"/>
+      <c r="W15" s="44"/>
+    </row>
+    <row r="16" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="9"/>
+      <c r="B16" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="44"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="O16" s="43"/>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="43"/>
+      <c r="S16" s="43"/>
+      <c r="T16" s="43"/>
+      <c r="U16" s="43"/>
+      <c r="V16" s="43"/>
+      <c r="W16" s="44"/>
+    </row>
+    <row r="17" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="9"/>
+      <c r="B17" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="44"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="O17" s="43"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="43"/>
+      <c r="S17" s="43"/>
+      <c r="T17" s="43"/>
+      <c r="U17" s="43"/>
+      <c r="V17" s="43"/>
+      <c r="W17" s="44"/>
+    </row>
+    <row r="18" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="9"/>
+      <c r="B18" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="44"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="O18" s="43"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="43"/>
+      <c r="S18" s="43"/>
+      <c r="T18" s="43"/>
+      <c r="U18" s="43"/>
+      <c r="V18" s="43"/>
+      <c r="W18" s="44"/>
+    </row>
+    <row r="19" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="9"/>
+      <c r="B19" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="44"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="O19" s="43"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="43"/>
+      <c r="T19" s="43"/>
+      <c r="U19" s="43"/>
+      <c r="V19" s="43"/>
+      <c r="W19" s="44"/>
+    </row>
+    <row r="20" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="9"/>
+      <c r="B20" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="44"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="O20" s="43"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="43"/>
+      <c r="R20" s="43"/>
+      <c r="S20" s="43"/>
+      <c r="T20" s="43"/>
+      <c r="U20" s="43"/>
+      <c r="V20" s="43"/>
+      <c r="W20" s="44"/>
+    </row>
+    <row r="22" spans="1:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="M22" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N22" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="O22" s="41"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="41"/>
+      <c r="T22" s="41"/>
+      <c r="U22" s="41"/>
+      <c r="V22" s="41"/>
+      <c r="W22" s="41"/>
+    </row>
+    <row r="23" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="9"/>
+      <c r="B23" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="47"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="O23" s="46"/>
+      <c r="P23" s="46"/>
+      <c r="Q23" s="46"/>
+      <c r="R23" s="46"/>
+      <c r="S23" s="46"/>
+      <c r="T23" s="46"/>
+      <c r="U23" s="46"/>
+      <c r="V23" s="46"/>
+      <c r="W23" s="47"/>
+    </row>
+    <row r="24" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="9"/>
+      <c r="B24" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="44"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="O24" s="43"/>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="43"/>
+      <c r="R24" s="43"/>
+      <c r="S24" s="43"/>
+      <c r="T24" s="43"/>
+      <c r="U24" s="43"/>
+      <c r="V24" s="43"/>
+      <c r="W24" s="44"/>
+    </row>
+    <row r="25" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="9"/>
+      <c r="B25" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="44"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="O25" s="43"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="43"/>
+      <c r="R25" s="43"/>
+      <c r="S25" s="43"/>
+      <c r="T25" s="43"/>
+      <c r="U25" s="43"/>
+      <c r="V25" s="43"/>
+      <c r="W25" s="44"/>
+    </row>
+    <row r="26" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="9"/>
+      <c r="B26" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="44"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="O26" s="43"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="43"/>
+      <c r="S26" s="43"/>
+      <c r="T26" s="43"/>
+      <c r="U26" s="43"/>
+      <c r="V26" s="43"/>
+      <c r="W26" s="44"/>
+    </row>
+    <row r="27" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="9"/>
+      <c r="B27" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="44"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="O27" s="43"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="43"/>
+      <c r="R27" s="43"/>
+      <c r="S27" s="43"/>
+      <c r="T27" s="43"/>
+      <c r="U27" s="43"/>
+      <c r="V27" s="43"/>
+      <c r="W27" s="44"/>
+    </row>
+    <row r="28" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="9"/>
+      <c r="B28" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="44"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="O28" s="43"/>
+      <c r="P28" s="43"/>
+      <c r="Q28" s="43"/>
+      <c r="R28" s="43"/>
+      <c r="S28" s="43"/>
+      <c r="T28" s="43"/>
+      <c r="U28" s="43"/>
+      <c r="V28" s="43"/>
+      <c r="W28" s="44"/>
+    </row>
+    <row r="29" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="9"/>
+      <c r="B29" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="44"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="O29" s="43"/>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="43"/>
+      <c r="R29" s="43"/>
+      <c r="S29" s="43"/>
+      <c r="T29" s="43"/>
+      <c r="U29" s="43"/>
+      <c r="V29" s="43"/>
+      <c r="W29" s="44"/>
+    </row>
+    <row r="31" spans="1:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="M31" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N31" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="O31" s="41"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="41"/>
+      <c r="S31" s="41"/>
+      <c r="T31" s="41"/>
+      <c r="U31" s="41"/>
+      <c r="V31" s="41"/>
+      <c r="W31" s="41"/>
+    </row>
+    <row r="32" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="9"/>
+      <c r="B32" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="47"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="O32" s="46"/>
+      <c r="P32" s="46"/>
+      <c r="Q32" s="46"/>
+      <c r="R32" s="46"/>
+      <c r="S32" s="46"/>
+      <c r="T32" s="46"/>
+      <c r="U32" s="46"/>
+      <c r="V32" s="46"/>
+      <c r="W32" s="47"/>
+    </row>
+    <row r="33" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="9"/>
+      <c r="B33" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="44"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="O33" s="43"/>
+      <c r="P33" s="43"/>
+      <c r="Q33" s="43"/>
+      <c r="R33" s="43"/>
+      <c r="S33" s="43"/>
+      <c r="T33" s="43"/>
+      <c r="U33" s="43"/>
+      <c r="V33" s="43"/>
+      <c r="W33" s="44"/>
+    </row>
+    <row r="34" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="9"/>
+      <c r="B34" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="44"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="O34" s="43"/>
+      <c r="P34" s="43"/>
+      <c r="Q34" s="43"/>
+      <c r="R34" s="43"/>
+      <c r="S34" s="43"/>
+      <c r="T34" s="43"/>
+      <c r="U34" s="43"/>
+      <c r="V34" s="43"/>
+      <c r="W34" s="44"/>
+    </row>
+    <row r="35" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="9"/>
+      <c r="B35" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="44"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="O35" s="43"/>
+      <c r="P35" s="43"/>
+      <c r="Q35" s="43"/>
+      <c r="R35" s="43"/>
+      <c r="S35" s="43"/>
+      <c r="T35" s="43"/>
+      <c r="U35" s="43"/>
+      <c r="V35" s="43"/>
+      <c r="W35" s="44"/>
+    </row>
+    <row r="36" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="9"/>
+      <c r="B36" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="44"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="O36" s="43"/>
+      <c r="P36" s="43"/>
+      <c r="Q36" s="43"/>
+      <c r="R36" s="43"/>
+      <c r="S36" s="43"/>
+      <c r="T36" s="43"/>
+      <c r="U36" s="43"/>
+      <c r="V36" s="43"/>
+      <c r="W36" s="44"/>
+    </row>
+    <row r="37" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="9"/>
+      <c r="B37" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="44"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="O37" s="43"/>
+      <c r="P37" s="43"/>
+      <c r="Q37" s="43"/>
+      <c r="R37" s="43"/>
+      <c r="S37" s="43"/>
+      <c r="T37" s="43"/>
+      <c r="U37" s="43"/>
+      <c r="V37" s="43"/>
+      <c r="W37" s="44"/>
+    </row>
+    <row r="38" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="9"/>
+      <c r="B38" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="44"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="O38" s="43"/>
+      <c r="P38" s="43"/>
+      <c r="Q38" s="43"/>
+      <c r="R38" s="43"/>
+      <c r="S38" s="43"/>
+      <c r="T38" s="43"/>
+      <c r="U38" s="43"/>
+      <c r="V38" s="43"/>
+      <c r="W38" s="44"/>
+    </row>
+    <row r="40" spans="1:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="M40" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N40" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="O40" s="41"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="41"/>
+      <c r="S40" s="41"/>
+      <c r="T40" s="41"/>
+      <c r="U40" s="41"/>
+      <c r="V40" s="41"/>
+      <c r="W40" s="41"/>
+    </row>
+    <row r="41" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="9"/>
+      <c r="B41" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="47"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="O41" s="46"/>
+      <c r="P41" s="46"/>
+      <c r="Q41" s="46"/>
+      <c r="R41" s="46"/>
+      <c r="S41" s="46"/>
+      <c r="T41" s="46"/>
+      <c r="U41" s="46"/>
+      <c r="V41" s="46"/>
+      <c r="W41" s="47"/>
+    </row>
+    <row r="42" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="9"/>
+      <c r="B42" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="43"/>
+      <c r="K42" s="44"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="O42" s="43"/>
+      <c r="P42" s="43"/>
+      <c r="Q42" s="43"/>
+      <c r="R42" s="43"/>
+      <c r="S42" s="43"/>
+      <c r="T42" s="43"/>
+      <c r="U42" s="43"/>
+      <c r="V42" s="43"/>
+      <c r="W42" s="44"/>
+    </row>
+    <row r="43" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="9"/>
+      <c r="B43" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
+      <c r="K43" s="44"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="O43" s="43"/>
+      <c r="P43" s="43"/>
+      <c r="Q43" s="43"/>
+      <c r="R43" s="43"/>
+      <c r="S43" s="43"/>
+      <c r="T43" s="43"/>
+      <c r="U43" s="43"/>
+      <c r="V43" s="43"/>
+      <c r="W43" s="44"/>
+    </row>
+    <row r="44" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="9"/>
+      <c r="B44" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
+      <c r="K44" s="44"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="O44" s="43"/>
+      <c r="P44" s="43"/>
+      <c r="Q44" s="43"/>
+      <c r="R44" s="43"/>
+      <c r="S44" s="43"/>
+      <c r="T44" s="43"/>
+      <c r="U44" s="43"/>
+      <c r="V44" s="43"/>
+      <c r="W44" s="44"/>
+    </row>
+    <row r="45" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="9"/>
+      <c r="B45" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="43"/>
+      <c r="K45" s="44"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="O45" s="43"/>
+      <c r="P45" s="43"/>
+      <c r="Q45" s="43"/>
+      <c r="R45" s="43"/>
+      <c r="S45" s="43"/>
+      <c r="T45" s="43"/>
+      <c r="U45" s="43"/>
+      <c r="V45" s="43"/>
+      <c r="W45" s="44"/>
+    </row>
+    <row r="46" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="9"/>
+      <c r="B46" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="43"/>
+      <c r="K46" s="44"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="O46" s="43"/>
+      <c r="P46" s="43"/>
+      <c r="Q46" s="43"/>
+      <c r="R46" s="43"/>
+      <c r="S46" s="43"/>
+      <c r="T46" s="43"/>
+      <c r="U46" s="43"/>
+      <c r="V46" s="43"/>
+      <c r="W46" s="44"/>
+    </row>
+    <row r="47" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="9"/>
+      <c r="B47" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="43"/>
+      <c r="J47" s="43"/>
+      <c r="K47" s="44"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="O47" s="43"/>
+      <c r="P47" s="43"/>
+      <c r="Q47" s="43"/>
+      <c r="R47" s="43"/>
+      <c r="S47" s="43"/>
+      <c r="T47" s="43"/>
+      <c r="U47" s="43"/>
+      <c r="V47" s="43"/>
+      <c r="W47" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="84">
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B17:K17"/>
+    <mergeCell ref="B31:K31"/>
+    <mergeCell ref="B45:K45"/>
+    <mergeCell ref="N13:W13"/>
+    <mergeCell ref="N17:W17"/>
+    <mergeCell ref="N31:W31"/>
+    <mergeCell ref="N45:W45"/>
+    <mergeCell ref="B40:K40"/>
+    <mergeCell ref="N40:W40"/>
+    <mergeCell ref="B41:K41"/>
+    <mergeCell ref="N41:W41"/>
+    <mergeCell ref="B42:K42"/>
+    <mergeCell ref="N42:W42"/>
+    <mergeCell ref="B37:K37"/>
+    <mergeCell ref="N37:W37"/>
+    <mergeCell ref="B47:K47"/>
+    <mergeCell ref="N47:W47"/>
+    <mergeCell ref="B43:K43"/>
+    <mergeCell ref="N43:W43"/>
+    <mergeCell ref="B44:K44"/>
+    <mergeCell ref="N44:W44"/>
+    <mergeCell ref="B46:K46"/>
+    <mergeCell ref="N46:W46"/>
+    <mergeCell ref="B38:K38"/>
+    <mergeCell ref="N38:W38"/>
+    <mergeCell ref="B34:K34"/>
+    <mergeCell ref="N34:W34"/>
+    <mergeCell ref="B35:K35"/>
+    <mergeCell ref="N35:W35"/>
+    <mergeCell ref="B36:K36"/>
+    <mergeCell ref="N36:W36"/>
+    <mergeCell ref="B32:K32"/>
+    <mergeCell ref="N32:W32"/>
+    <mergeCell ref="B33:K33"/>
+    <mergeCell ref="N33:W33"/>
+    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="N27:W27"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="N28:W28"/>
+    <mergeCell ref="B29:K29"/>
+    <mergeCell ref="N29:W29"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="N24:W24"/>
+    <mergeCell ref="B25:K25"/>
+    <mergeCell ref="N25:W25"/>
+    <mergeCell ref="B26:K26"/>
+    <mergeCell ref="N26:W26"/>
+    <mergeCell ref="B22:K22"/>
+    <mergeCell ref="N22:W22"/>
+    <mergeCell ref="B23:K23"/>
+    <mergeCell ref="N23:W23"/>
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="N18:W18"/>
+    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="N19:W19"/>
+    <mergeCell ref="B20:K20"/>
+    <mergeCell ref="N20:W20"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="N14:W14"/>
+    <mergeCell ref="B15:K15"/>
+    <mergeCell ref="N15:W15"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="N16:W16"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="N11:W11"/>
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="N8:W8"/>
+    <mergeCell ref="B9:K9"/>
+    <mergeCell ref="N9:W9"/>
+    <mergeCell ref="B10:K10"/>
+    <mergeCell ref="N10:W10"/>
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="N5:W5"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="N6:W6"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="N7:W7"/>
+    <mergeCell ref="N4:W4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="A2:D3"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="B4:K4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{092B61EB-C007-4B22-BCF7-24197BD99A9E}">
+  <dimension ref="A1:W14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="47.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="14"/>
+    </row>
+    <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="1:23" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="39"/>
+    </row>
+    <row r="4" spans="1:23" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+    </row>
+    <row r="5" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="45"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="47"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+    </row>
+    <row r="6" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="42"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="44"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+    </row>
+    <row r="7" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="42"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="44"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+    </row>
+    <row r="8" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+    </row>
+    <row r="9" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="42"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="44"/>
+    </row>
+    <row r="10" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="42"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="44"/>
+    </row>
+    <row r="11" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="42"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="44"/>
+    </row>
+    <row r="12" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+    </row>
+    <row r="13" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+    </row>
+    <row r="14" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
+      <c r="B14" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="A2:D3"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B9:K9"/>
+    <mergeCell ref="B10:K10"/>
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A13:K13"/>
+    <mergeCell ref="A12:K12"/>
+    <mergeCell ref="B11:K11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B05F81-C6B4-4D3F-9100-6FB78FDAA1D3}">
+  <dimension ref="A1:K30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="47.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="14"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="1:11" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="39"/>
+    </row>
+    <row r="4" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+    </row>
+    <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="18"/>
+      <c r="B5" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="54"/>
+    </row>
+    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="18"/>
+      <c r="B6" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="57"/>
+    </row>
+    <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="18"/>
+      <c r="B7" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="57"/>
+    </row>
+    <row r="8" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="18"/>
+      <c r="B8" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="57"/>
+    </row>
+    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="18"/>
+      <c r="B9" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="57"/>
+    </row>
+    <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="18"/>
+      <c r="B10" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="57"/>
+    </row>
+    <row r="11" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+    </row>
+    <row r="12" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="18"/>
+      <c r="B12" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="57"/>
+    </row>
+    <row r="13" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="18"/>
+      <c r="B13" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="57"/>
+    </row>
+    <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="18"/>
+      <c r="B14" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="57"/>
+    </row>
+    <row r="15" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+    </row>
+    <row r="16" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="18"/>
+      <c r="B16" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="57"/>
+    </row>
+    <row r="17" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="18"/>
+      <c r="B17" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="57"/>
+    </row>
+    <row r="18" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="18"/>
+      <c r="B18" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="57"/>
+    </row>
+    <row r="19" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+    </row>
+    <row r="20" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="18"/>
+      <c r="B20" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="57"/>
+    </row>
+    <row r="21" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="18"/>
+      <c r="B21" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="57"/>
+    </row>
+    <row r="22" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="18"/>
+      <c r="B22" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="57"/>
+    </row>
+    <row r="23" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+    </row>
+    <row r="24" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="18"/>
+      <c r="B24" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="57"/>
+    </row>
+    <row r="25" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="18"/>
+      <c r="B25" s="55" t="s">
+        <v>133</v>
+      </c>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="57"/>
+    </row>
+    <row r="26" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+    </row>
+    <row r="27" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="18"/>
+      <c r="B27" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="57"/>
+    </row>
+    <row r="28" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="18"/>
+      <c r="B28" s="55" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="57"/>
+    </row>
+    <row r="29" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B29" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+    </row>
+    <row r="30" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="18"/>
+      <c r="B30" s="55" t="s">
+        <v>137</v>
+      </c>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="57"/>
+    </row>
+  </sheetData>
+  <mergeCells count="31">
+    <mergeCell ref="B30:K30"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="B15:K15"/>
+    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="B23:K23"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="B25:K25"/>
+    <mergeCell ref="B26:K26"/>
+    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="B20:K20"/>
+    <mergeCell ref="B21:K21"/>
+    <mergeCell ref="B22:K22"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="B9:K9"/>
+    <mergeCell ref="B10:K10"/>
+    <mergeCell ref="B29:K29"/>
+    <mergeCell ref="B17:K17"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B12:K12"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="A2:D3"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="B4:K4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B5:K5" r:id="rId1" display="Security Awareness: Phishing &amp; Ransomware" xr:uid="{F9160E2B-34D9-4B86-8023-A0E3C0148521}"/>
+    <hyperlink ref="B6:K6" r:id="rId2" display="Security Awareness: Vishing " xr:uid="{5D23A635-E8CD-47CD-B707-8C33EFDCFEE5}"/>
+    <hyperlink ref="B7:K7" r:id="rId3" display="(ISC)² U.S. Military Germany" xr:uid="{CB750840-337D-4E2A-8032-6E293A7B7DB3}"/>
+    <hyperlink ref="B8:K8" r:id="rId4" display="SANS Security Awareness: Social Engineering" xr:uid="{B4A17B6F-49DF-4F91-BD50-EAA4F5868FB5}"/>
+    <hyperlink ref="B9:K9" r:id="rId5" display="Social Engineering Webinar" xr:uid="{48E70EFF-AEFA-47A2-9342-C470E433240D}"/>
+    <hyperlink ref="B10:K10" r:id="rId6" display="Professor Messer " xr:uid="{756C2A9E-BB9A-4404-AB6E-07A9A506F22E}"/>
+    <hyperlink ref="B12:K12" r:id="rId7" display="Security Awareness: Passwords" xr:uid="{08D1BAEC-074C-4332-B8D2-18B5DD30C444}"/>
+    <hyperlink ref="B13:K13" r:id="rId8" display="Professor Messer: Authentication Methods " xr:uid="{BCD38915-A9A3-4642-9C53-61436547B3D1}"/>
+    <hyperlink ref="B14:K14" r:id="rId9" display="Professor Messer: Password Attacks" xr:uid="{064B67B1-AB67-490B-A882-94C2CEDA134E}"/>
+    <hyperlink ref="B16:K16" r:id="rId10" display="Security Awareness on Data Handling " xr:uid="{680A374F-7EE3-4F35-A647-1D3D5D21D0BF}"/>
+    <hyperlink ref="B17:K17" r:id="rId11" display="DoD CyberExchange: Identifying &amp; Safeguarding PII " xr:uid="{6BB909CA-DD04-40F1-83AE-B7ED78368CF4}"/>
+    <hyperlink ref="B18:K18" r:id="rId12" display="SANS Data Security" xr:uid="{38E2C73B-1784-459D-9D91-4840896DC393}"/>
+    <hyperlink ref="B20:K20" r:id="rId13" display="Security Awareness: Removable Media" xr:uid="{8B853EB0-327E-4A86-82C7-9F6D3DF01181}"/>
+    <hyperlink ref="B21:K21" r:id="rId14" display="Security Awareness: Data Leakage" xr:uid="{51B07749-6336-41FE-91AC-92D643423B32}"/>
+    <hyperlink ref="B22:K22" r:id="rId15" display="Physical Security Awareness" xr:uid="{004D52B4-1322-419C-B685-3A74DA87D3FB}"/>
+    <hyperlink ref="B24:K24" r:id="rId16" display="Security Awareness Training: Reporting an Incident" xr:uid="{17E71FC8-961A-446A-9054-100BF8CE4B5D}"/>
+    <hyperlink ref="B25:K25" r:id="rId17" display="Incident Reporting" xr:uid="{17BABB39-DFF4-4DDB-AE70-5CF5D66E22B6}"/>
+    <hyperlink ref="B27:K27" r:id="rId18" display="Software Updates" xr:uid="{7784EE11-F56C-461C-B289-4C6014C09C83}"/>
+    <hyperlink ref="B28:K28" r:id="rId19" display="End User Browsing " xr:uid="{6CF444F3-FFE8-4C05-B79F-33BB49AE9BE2}"/>
+    <hyperlink ref="B30:K30" r:id="rId20" display="Security Awareness: Wifi " xr:uid="{2F1473B7-78AF-42CA-A255-EC05739462DF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
 
@@ -1641,185 +6850,185 @@
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="13" t="s">
+    <row r="10" spans="2:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="14" t="s">
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B11" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="16"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="19"/>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="19"/>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="19"/>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="19"/>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="19"/>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="19"/>
-    </row>
-    <row r="18" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="20"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="22"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="22"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="25"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B13" s="23"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="25"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="25"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B15" s="23"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="25"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B16" s="23"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="25"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B17" s="23"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="25"/>
+    </row>
+    <row r="18" spans="2:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="26"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1839,25 +7048,25 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="51.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="51.1640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="93.7109375" style="5" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="1"/>
+    <col min="3" max="3" width="93.6640625" style="5" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:3" ht="143.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="151" x14ac:dyDescent="0.2">
       <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="C6" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="12" t="s">
         <v>16</v>
       </c>
@@ -1865,17 +7074,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="C11" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="29.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:3" ht="16" x14ac:dyDescent="0.2">
       <c r="C17" s="11" t="s">
         <v>15</v>
       </c>
@@ -1899,20 +7108,20 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" customWidth="1"/>
+    <col min="1" max="1" width="29.5" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="69.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="69.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
@@ -1926,73 +7135,73 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="10"/>
@@ -2011,78 +7220,78 @@
       <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="14" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="47.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="26.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="16.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="47.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="31"/>
-    </row>
-    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="14"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="23" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="32"/>
-    </row>
-    <row r="3" spans="1:13" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="33" t="s">
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="15"/>
+    </row>
+    <row r="3" spans="1:13" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="35"/>
-    </row>
-    <row r="4" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="37"/>
+    </row>
+    <row r="4" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>20</v>
       </c>
@@ -2111,7 +7320,7 @@
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="10"/>
@@ -2126,7 +7335,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="10"/>
@@ -2141,7 +7350,7 @@
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
@@ -2156,7 +7365,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="10"/>
@@ -2171,7 +7380,7 @@
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
@@ -2186,7 +7395,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="10"/>
@@ -2201,7 +7410,7 @@
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="10"/>
@@ -2216,7 +7425,7 @@
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="10"/>
@@ -2231,7 +7440,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="10"/>
@@ -2246,7 +7455,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="10"/>
@@ -2261,7 +7470,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="10"/>
@@ -2276,7 +7485,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
@@ -2291,7 +7500,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
     </row>
-    <row r="28" spans="12:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="12:23" x14ac:dyDescent="0.2">
       <c r="L28"/>
       <c r="M28"/>
       <c r="N28"/>
@@ -2305,7 +7514,7 @@
       <c r="V28"/>
       <c r="W28"/>
     </row>
-    <row r="29" spans="12:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="12:23" x14ac:dyDescent="0.2">
       <c r="L29"/>
       <c r="M29"/>
       <c r="N29"/>
@@ -2319,7 +7528,7 @@
       <c r="V29"/>
       <c r="W29"/>
     </row>
-    <row r="30" spans="12:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="12:23" x14ac:dyDescent="0.2">
       <c r="L30"/>
       <c r="M30"/>
       <c r="N30"/>
@@ -2333,7 +7542,7 @@
       <c r="V30"/>
       <c r="W30"/>
     </row>
-    <row r="31" spans="12:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="12:23" x14ac:dyDescent="0.2">
       <c r="L31"/>
       <c r="M31"/>
       <c r="N31"/>
@@ -2347,7 +7556,7 @@
       <c r="V31"/>
       <c r="W31"/>
     </row>
-    <row r="32" spans="12:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="12:23" x14ac:dyDescent="0.2">
       <c r="L32"/>
       <c r="M32"/>
       <c r="N32"/>
@@ -2361,7 +7570,7 @@
       <c r="V32"/>
       <c r="W32"/>
     </row>
-    <row r="33" spans="12:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="12:23" x14ac:dyDescent="0.2">
       <c r="L33"/>
       <c r="M33"/>
       <c r="N33"/>
@@ -2375,7 +7584,7 @@
       <c r="V33"/>
       <c r="W33"/>
     </row>
-    <row r="34" spans="12:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="12:23" x14ac:dyDescent="0.2">
       <c r="L34"/>
       <c r="M34"/>
       <c r="N34"/>
@@ -2389,7 +7598,7 @@
       <c r="V34"/>
       <c r="W34"/>
     </row>
-    <row r="35" spans="12:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="12:23" x14ac:dyDescent="0.2">
       <c r="L35"/>
       <c r="M35"/>
       <c r="N35"/>
@@ -2403,7 +7612,7 @@
       <c r="V35"/>
       <c r="W35"/>
     </row>
-    <row r="36" spans="12:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="12:23" x14ac:dyDescent="0.2">
       <c r="L36"/>
       <c r="M36"/>
       <c r="N36"/>
@@ -2417,7 +7626,7 @@
       <c r="V36"/>
       <c r="W36"/>
     </row>
-    <row r="37" spans="12:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="12:23" x14ac:dyDescent="0.2">
       <c r="L37"/>
       <c r="M37"/>
       <c r="N37"/>
@@ -2431,7 +7640,7 @@
       <c r="V37"/>
       <c r="W37"/>
     </row>
-    <row r="38" spans="12:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="12:23" x14ac:dyDescent="0.2">
       <c r="L38"/>
       <c r="M38"/>
       <c r="N38"/>
@@ -2445,7 +7654,7 @@
       <c r="V38"/>
       <c r="W38"/>
     </row>
-    <row r="39" spans="12:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="12:23" x14ac:dyDescent="0.2">
       <c r="L39"/>
       <c r="M39"/>
       <c r="N39"/>
@@ -2459,7 +7668,7 @@
       <c r="V39"/>
       <c r="W39"/>
     </row>
-    <row r="40" spans="12:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="12:23" x14ac:dyDescent="0.2">
       <c r="L40"/>
       <c r="M40"/>
       <c r="N40"/>
@@ -2473,7 +7682,7 @@
       <c r="V40"/>
       <c r="W40"/>
     </row>
-    <row r="41" spans="12:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="12:23" x14ac:dyDescent="0.2">
       <c r="L41"/>
       <c r="M41"/>
       <c r="N41"/>
@@ -2487,7 +7696,7 @@
       <c r="V41"/>
       <c r="W41"/>
     </row>
-    <row r="42" spans="12:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="12:23" x14ac:dyDescent="0.2">
       <c r="L42"/>
       <c r="M42"/>
       <c r="N42"/>
@@ -2501,7 +7710,7 @@
       <c r="V42"/>
       <c r="W42"/>
     </row>
-    <row r="43" spans="12:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="12:23" x14ac:dyDescent="0.2">
       <c r="L43"/>
       <c r="M43"/>
       <c r="N43"/>
@@ -2515,7 +7724,7 @@
       <c r="V43"/>
       <c r="W43"/>
     </row>
-    <row r="44" spans="12:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="12:23" x14ac:dyDescent="0.2">
       <c r="L44"/>
       <c r="M44"/>
       <c r="N44"/>
@@ -2529,7 +7738,7 @@
       <c r="V44"/>
       <c r="W44"/>
     </row>
-    <row r="45" spans="12:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="12:23" x14ac:dyDescent="0.2">
       <c r="L45"/>
       <c r="M45"/>
       <c r="N45"/>
@@ -2563,79 +7772,79 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" customWidth="1"/>
-    <col min="6" max="6" width="47.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="26.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="47.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="15" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="31"/>
-    </row>
-    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="14"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="23" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="32"/>
-    </row>
-    <row r="3" spans="1:13" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="33" t="s">
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="15"/>
+    </row>
+    <row r="3" spans="1:13" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="37"/>
-    </row>
-    <row r="4" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="39"/>
+    </row>
+    <row r="4" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
@@ -2666,7 +7875,7 @@
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="10"/>
@@ -2681,7 +7890,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="10"/>
@@ -2696,7 +7905,7 @@
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
@@ -2711,7 +7920,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="10"/>
@@ -2726,7 +7935,7 @@
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
@@ -2741,7 +7950,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="10"/>
@@ -2756,7 +7965,7 @@
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="10"/>
@@ -2771,7 +7980,7 @@
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="10"/>
@@ -2786,7 +7995,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="10"/>
@@ -2801,7 +8010,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="10"/>
@@ -2816,7 +8025,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="10"/>
@@ -2831,7 +8040,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
@@ -2866,69 +8075,69 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="61.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="61.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="31"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="14"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="23" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="32"/>
-    </row>
-    <row r="3" spans="1:11" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="33" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="1:11" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="37"/>
-    </row>
-    <row r="4" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="39"/>
+    </row>
+    <row r="4" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>43</v>
       </c>
@@ -2949,7 +8158,7 @@
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="10"/>
@@ -2962,7 +8171,7 @@
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="10"/>
@@ -2975,7 +8184,7 @@
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
@@ -2988,7 +8197,7 @@
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="10"/>
@@ -3001,7 +8210,7 @@
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
@@ -3014,7 +8223,7 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="10"/>
@@ -3027,7 +8236,7 @@
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="10"/>
@@ -3040,7 +8249,7 @@
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="10"/>
@@ -3053,7 +8262,7 @@
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="10"/>
@@ -3066,7 +8275,7 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="10"/>
@@ -3079,7 +8288,7 @@
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="10"/>
@@ -3092,7 +8301,7 @@
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
@@ -3105,7 +8314,7 @@
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
     </row>
-    <row r="26" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="11:20" x14ac:dyDescent="0.2">
       <c r="K26"/>
       <c r="L26"/>
       <c r="M26"/>
@@ -3117,7 +8326,7 @@
       <c r="S26"/>
       <c r="T26"/>
     </row>
-    <row r="27" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="11:20" x14ac:dyDescent="0.2">
       <c r="K27"/>
       <c r="L27"/>
       <c r="M27"/>
@@ -3129,7 +8338,7 @@
       <c r="S27"/>
       <c r="T27"/>
     </row>
-    <row r="28" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="11:20" x14ac:dyDescent="0.2">
       <c r="K28"/>
       <c r="L28"/>
       <c r="M28"/>
@@ -3141,7 +8350,7 @@
       <c r="S28"/>
       <c r="T28"/>
     </row>
-    <row r="29" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="11:20" x14ac:dyDescent="0.2">
       <c r="K29"/>
       <c r="L29"/>
       <c r="M29"/>
@@ -3153,7 +8362,7 @@
       <c r="S29"/>
       <c r="T29"/>
     </row>
-    <row r="30" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="11:20" x14ac:dyDescent="0.2">
       <c r="K30"/>
       <c r="L30"/>
       <c r="M30"/>
@@ -3165,7 +8374,7 @@
       <c r="S30"/>
       <c r="T30"/>
     </row>
-    <row r="31" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="11:20" x14ac:dyDescent="0.2">
       <c r="K31"/>
       <c r="L31"/>
       <c r="M31"/>
@@ -3177,7 +8386,7 @@
       <c r="S31"/>
       <c r="T31"/>
     </row>
-    <row r="32" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="11:20" x14ac:dyDescent="0.2">
       <c r="K32"/>
       <c r="L32"/>
       <c r="M32"/>
@@ -3189,7 +8398,7 @@
       <c r="S32"/>
       <c r="T32"/>
     </row>
-    <row r="33" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="11:20" x14ac:dyDescent="0.2">
       <c r="K33"/>
       <c r="L33"/>
       <c r="M33"/>
@@ -3201,7 +8410,7 @@
       <c r="S33"/>
       <c r="T33"/>
     </row>
-    <row r="34" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="11:20" x14ac:dyDescent="0.2">
       <c r="K34"/>
       <c r="L34"/>
       <c r="M34"/>
@@ -3213,7 +8422,7 @@
       <c r="S34"/>
       <c r="T34"/>
     </row>
-    <row r="35" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="11:20" x14ac:dyDescent="0.2">
       <c r="K35"/>
       <c r="L35"/>
       <c r="M35"/>
@@ -3225,7 +8434,7 @@
       <c r="S35"/>
       <c r="T35"/>
     </row>
-    <row r="36" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="11:20" x14ac:dyDescent="0.2">
       <c r="K36"/>
       <c r="L36"/>
       <c r="M36"/>
@@ -3237,7 +8446,7 @@
       <c r="S36"/>
       <c r="T36"/>
     </row>
-    <row r="37" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="11:20" x14ac:dyDescent="0.2">
       <c r="K37"/>
       <c r="L37"/>
       <c r="M37"/>
@@ -3249,7 +8458,7 @@
       <c r="S37"/>
       <c r="T37"/>
     </row>
-    <row r="38" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="11:20" x14ac:dyDescent="0.2">
       <c r="K38"/>
       <c r="L38"/>
       <c r="M38"/>
@@ -3261,7 +8470,7 @@
       <c r="S38"/>
       <c r="T38"/>
     </row>
-    <row r="39" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="11:20" x14ac:dyDescent="0.2">
       <c r="K39"/>
       <c r="L39"/>
       <c r="M39"/>
@@ -3293,69 +8502,69 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="61.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="61.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="31"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="14"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="23" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="32"/>
-    </row>
-    <row r="3" spans="1:11" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="33" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="1:11" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="37"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="39"/>
+    </row>
+    <row r="4" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>33</v>
       </c>
@@ -3376,7 +8585,7 @@
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="10"/>
@@ -3389,7 +8598,7 @@
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="10"/>
@@ -3402,7 +8611,7 @@
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
@@ -3415,7 +8624,7 @@
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="10"/>
@@ -3428,7 +8637,7 @@
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
@@ -3441,7 +8650,7 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="10"/>
@@ -3454,7 +8663,7 @@
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="10"/>
@@ -3467,7 +8676,7 @@
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="10"/>
@@ -3480,7 +8689,7 @@
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="10"/>
@@ -3493,7 +8702,7 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="10"/>
@@ -3506,7 +8715,7 @@
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="10"/>
@@ -3519,7 +8728,7 @@
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
@@ -3552,69 +8761,69 @@
       <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="47.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="47.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="31"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="14"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="23" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="32"/>
-    </row>
-    <row r="3" spans="1:11" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="33" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="1:11" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="37"/>
-    </row>
-    <row r="4" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="39"/>
+    </row>
+    <row r="4" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>48</v>
       </c>
@@ -3637,7 +8846,7 @@
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="10"/>
@@ -3650,7 +8859,7 @@
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="10"/>
@@ -3663,7 +8872,7 @@
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
@@ -3676,7 +8885,7 @@
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="10"/>
@@ -3689,7 +8898,7 @@
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
@@ -3702,7 +8911,7 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="10"/>
@@ -3715,7 +8924,7 @@
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="10"/>
@@ -3728,7 +8937,7 @@
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="10"/>
@@ -3741,7 +8950,7 @@
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="10"/>
@@ -3754,7 +8963,7 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="10"/>
@@ -3767,7 +8976,7 @@
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="10"/>
@@ -3780,7 +8989,7 @@
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
